--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\kw2\kw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828A55D-78A7-4517-9EE7-5C176873FBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F272110-F6E5-4D62-A33D-D341829F18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,19 +30,19 @@
     <t>keywords</t>
   </si>
   <si>
-    <t>خرید سمند</t>
-  </si>
-  <si>
     <t>خرید پراید</t>
   </si>
   <si>
-    <t>خرید رانا</t>
-  </si>
-  <si>
     <t>خرید کوییک</t>
   </si>
   <si>
     <t>خرید ساینا</t>
+  </si>
+  <si>
+    <t>خرید 206</t>
+  </si>
+  <si>
+    <t>خرید لاماری</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,27 +381,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\kw2\kw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F272110-F6E5-4D62-A33D-D341829F18E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF781A-30E8-4C66-913B-45DE46BB1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>keywords</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>خرید لاماری</t>
+  </si>
+  <si>
+    <t>قیمت 206</t>
+  </si>
+  <si>
+    <t>قیمت پراید</t>
+  </si>
+  <si>
+    <t>قیمت لاماری</t>
+  </si>
+  <si>
+    <t>قیمت کوییک</t>
+  </si>
+  <si>
+    <t>قیمت ساینا</t>
   </si>
 </sst>
 </file>
@@ -363,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +419,31 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S\kw2\kw2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DF781A-30E8-4C66-913B-45DE46BB1BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1906CF15-5949-4222-94B5-D1F1D84B7E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,7 +381,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
